--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value289.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value289.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226938936382028</v>
+        <v>1.015751481056213</v>
       </c>
       <c r="B1">
-        <v>1.914735152591115</v>
+        <v>1.341597676277161</v>
       </c>
       <c r="C1">
-        <v>1.987340790364139</v>
+        <v>2.145710945129395</v>
       </c>
       <c r="D1">
-        <v>2.336037324084094</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.579720528407667</v>
+        <v>1.996834993362427</v>
       </c>
     </row>
   </sheetData>
